--- a/data/publications/orcid/export_to_manual/Uniwersytet_Warszawski_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Warszawski_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3057 +436,3188 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Tomasz Jerzy Baran</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2922-7551</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Fear of missing out a korzystanie z urządzeń umożliwiających dostęp do mediów społecznościowych na podstawie badań polskich internautów</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Forum Socjologiczne</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Tomasz_Jerzy_Baran_10</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Tomasz Jerzy Baran</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2922-7551</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Fear of missing out a korzystanie z urządzeń umożliwiających dostęp do mediów społecznościowych na podstawie badań polskich internautów</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Forum Socjologiczne</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tomasz_Jerzy_Baran_11</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Tomasz Jerzy Baran</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2922-7551</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Fear of Missing Out a korzystanie z urządzeń umożliwiających dostęp do mediów społecznościowych – w oparciu o badania polskich internautów</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Forum Socjologiczne</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tomasz_Jerzy_Baran_12</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Tomasz Jerzy Baran</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2922-7551</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Corruption and Sexual Scandal: The Importance of Politician Gender</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Anales de Psicologia</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tomasz_Jerzy_Baran_13</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Tomasz Jerzy Baran</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2922-7551</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Roszczeniowość psychologiczna a metoda jej pomiaru: Polska adaptacja Skali roszczeniowości psychologicznej (PES)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>SOCIAL PSYCHOLOGICAL BULLETIN (PSYCHOLOGIA SPOLECZNA)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tomasz_Jerzy_Baran_15</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>38</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Kamilla Bargiel-Matusiewicz</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9467-2267</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Hormonal contraception use in social and psychological context</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Wiadomosci lekarskie (Warsaw, Poland : 1960)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kamilla_Bargiel-Matusiewicz_9</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>46</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Barbara Janina Bokus</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3048-0055</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Разбиране от деца и юноши на метафори, описващи хора</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Ezik i literatura</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Barbara_Janina_Bokus_3</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>67</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Anna Cierpka</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2846-3413</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Perspektywa czasowa a przekaz doświadczenia życiowego w okresie starości</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>PSYCHOLOGIA WYCHOWAWCZA</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Anna_Cierpka_4</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>68</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Anna Cierpka</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2846-3413</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Psycholog jako współkreator środowiska i procesu edukacyjno-wychowawczego</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Anna_Cierpka_5</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>77</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Małgorzata Janina Dragan</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8221-2012</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Cognitive-attentional syndrome – The psychometric properties of the CAS-1 and multi-measure CAS-based clinical diagnosis.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Comprehensive Psychiatry</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Małgorzata_Janina_Dragan_8</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>80</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Małgorzata Janina Dragan</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8221-2012</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Zaburzenia psychiczne u dorosłych krzywdzonych w dzieciństwie - badanie z zastosowaniem wywiadu strukturalizowanego SCID-I.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Małgorzata_Janina_Dragan_11</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>84</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Małgorzata Janina Dragan</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8221-2012</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Anxiety and depression as an effect of birth order or being an only child: Results of an internet survey in Poland and Germany</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Małgorzata_Janina_Dragan_15</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>97</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Małgorzata Joanna Gambin</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7880-1447</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Attachment and psychopathic traits in inpatient female and male adolescents</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Comprehensive Psychiatry</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Małgorzata_Joanna_Gambin_5</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>121</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Ewa Maria Haman</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1615-711X</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Teoria umysłu i jej pomiar u dzieci w wieku 4–6 lat: Test Refleksji nad Myśleniem</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Ewa_Maria_Haman_8</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>125</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Ewa Maria Haman</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1615-711X</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Construction of the Malay Cross-linguistic Lexical Task: A Preliminary Report</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Language Studies Working Papers</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Ewa_Maria_Haman_12</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>142</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Paweł Aleksander Holas</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4210-3396</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Cognitive-Behavioral (CBT) and Psychodynamic (PDT) Group Psychotherapy and Their Impact on Depressive Symptoms and Hostile Attributions</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>International Journal of Group Psychotherapy</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Paweł_Aleksander_Holas_9</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>148</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Paweł Aleksander Holas</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4210-3396</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Relationship of emotional distress and physical concerns with fatigue severity in sarcoidosis</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Sarcoidosis Vasculitis and Diffuse Lung Diseases</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Paweł_Aleksander_Holas_15</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>149</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Paweł Aleksander Holas</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4210-3396</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Relationship of emotional distress and physical concerns with fatigue severity in sarcoidosis</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>SARCOIDOSIS VASCULITIS AND DIFFUSE LUNG DISEASES</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Paweł_Aleksander_Holas_16</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>156</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Mirosława Bojana Huflejt-Łukasik</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7959-1760</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Miejsce samooceny wśród zmiennych kluczowych dla funkcjonowania i zdrowia psychicznego osoby</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Mirosława_Bojana_Huflejt-Łukasik_2</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>157</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Mirosława Bojana Huflejt-Łukasik</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7959-1760</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Osobowość a psychoterapia. Numer tematyczny</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Mirosława_Bojana_Huflejt-Łukasik_3</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>190</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Chronotype, social jetlag and sleep loss in relation to sex steroids</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Psychoneuroendocrinology</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_9</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>191</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Effects of chronotype and time of day on mood responses to CrossFit training</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Chronobiology international</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_10</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>192</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Effects of cognitive remediation therapy versus other interventions on cognitive functioning in schizophrenia inpatients</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Neuropsychological rehabilitation</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_11</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>195</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Chronotype and time metaphors: morning-types conceive time as more friendly and less hostile</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Biological rhythm research</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_14</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>196</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Measuring the capacity to love: development of the CTL-inventory</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Frontiers in psychology</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_15</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>197</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexual Self-Schema Scale for Women�Validation and Psychometric Properties of the Polish Version</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>Sexual Self-Schema Scale for Women Validation and Psychometric Properties of the Polish Version</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Sexual medicine</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_16</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>198</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Similarity in chronotype and preferred time for sex and its role in relationship quality and sexual satisfaction</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Frontiers in psychology</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_17</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>199</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Sleep timing is linked to sociosexuality: Evidence from German, Polish, Slovak, and Spanish females</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Time &amp; Society</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_18</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>200</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Synchrony in chronotype and social jetlag between dogs and humans across Europe</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Time &amp; Society</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_19</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>201</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Actual versus preferred sleep times as a proxy of biological time for social jet lag</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Chronobiology international</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_20</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>202</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>ARNTL, CLOCK and PER3 polymorphisms--links with chronotype and affective dimensions</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Chronobiology international</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_21</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>203</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Construct validity of the Polish version of the reinforcement sensitivity theory-personality questionnaire</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Personality and Individual Differences</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_22</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>204</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Morningness--eveningness correlates with sleep time, quality, and hygiene in secondary school students: a multilevel analysis</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Sleep medicine</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_23</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>205</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Morningness-eveningness and seasonality</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Biological Rhythm Research</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_24</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>206</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Social jet lag: Sleep-corrected formula</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Chronobiology international</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_25</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>207</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Standardy leczenia zaburzeń rytmu okołodobowego snu i czuwania opracowane przez Polskie Towarzystwo Badań nad Snem i Sekcję Psychiatrii Biologicznej Polskiego Towarzystwa Psychiatrycznego. Czę́sć I. Fizjologia, metody oceny i oddziaływania terapeutyczne</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Psychiatria Polska</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_26</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>208</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Standardy leczenia zaburzeń rytmu okołodobowego snu i czuwania Polskiego Towarzystwa Badań nad Snem i Sekcji Psychiatrii Biologicznej Polskiego Towarzystwa Psychiatrycznego. Czę́sć 2. Diagnoza i leczenie</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Psychiatr Pol</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_27</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>209</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Konrad Seweryn Jankowski</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0613-9532</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Treatment guidelines for circadian rhythm sleep-wake disorders of the Polish Sleep Research Society and the Section of Biological Psychiatry of the Polish Psychiatric Association. Part I. Physiology, assessment and therapeutic methods</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Psychiatr Pol</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Konrad_Seweryn_Jankowski_28</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>210</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Olga Jauer-Niworowska</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8488-2933</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Fonem w modelu strukturalno-funkcjonalnym - analiza biopsychicznych uwarunkowań kształtowania się pojęcia fonemu (zależności między percepcją a motoryką werbalną)</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Poradnik Językowy</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Olga_Jauer-Niworowska_1</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>211</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Olga Jauer-Niworowska</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8488-2933</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>" Podstawy teoretyczne diagnozy  i terapii logopedycznej pacjentów z uszkodzeniami / dysfunkcjami układu  pozapiramidowego"</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Poradnik Językowy</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Olga_Jauer-Niworowska_2</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>213</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Katarzyna Karzel</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1188-1037</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Content of fatty acids in a diet and the homocysteine levels in women with fertility disorders</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Neuroendocrinology Letters</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Katarzyna_Karzel_2</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>220</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Grażyna Maria Katra</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3474-297X</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Psycholog jako współkreator środowiska i procesu edukacyjno-wychowawczego</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Grażyna_Maria_Katra_5</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>243</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Grażyna Iwona Kmita</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0502-1882</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Neuroimaging results, short-term assessment of psychomotor development and the risk of autism spectrum disorder in extremely premature infants (≤28 GA) - a prospective cohort study (preliminary report)</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Developmental period medicine</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Grażyna_Iwona_Kmita_9</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>284</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Magdalena Ewa Łuniewska-Etenkowska</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5504-9766</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Construction of the Malay Cross-linguistic Lexical Task: A Preliminary Report</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Magdalena_Ewa_Łuniewska-Etenkowska_19</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>299</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Oliwia Maciantowicz</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3099-5956</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Empowered and satisfied: relationship between empowerment, temporal life satisfaction and time perspective</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Československá psychologie</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Oliwia_Maciantowicz_9</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>302</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Oliwia Maciantowicz</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3099-5956</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t xml:space="preserve">Narcyzm a satysfakcja z życia: pośrednicząca rola neurotyczności i ekstrawersji. </t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Psychologia-Etologia-Genetyka</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Oliwia_Maciantowicz_12</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>303</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Oliwia Maciantowicz</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3099-5956</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Relationship between grandiose and vulnerable narcissism and type of committed crime in population of polish prisoners,Relacja narcyzmu wielkościowego i wrażliwego z typem popełnionego przestępstwa pośród osadzonych w polskich zakładach karnych</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Oliwia_Maciantowicz_13</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>311</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Alicja Magdalena Niedźwiecka</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7485-846X</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Kompetencje dzieci głuchych w posługiwaniu się językiem migowym - metody oceny i jej kliniczne znaczenie</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Edukacja</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Alicja_Magdalena_Niedźwiecka_7</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>327</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Tomasz Sebastian Oleksy</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3499-9874</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Patterns of brain and cardiovascular activation while solving rule-discovery and rule-application numeric tasks</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>International Journal of Psychophysiology</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Tomasz_Sebastian_Oleksy_13</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>351</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Jerzy Tomasz Osiński</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9612-6799</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Behaviour as direct measure of animal welfare – the effect of strain, social stressors and stroboscopic illumination on rat (Rattus norvegicus) behaviour under high-versus low-anxiety conditions</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Animal Science Papers and Reports</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Jerzy_Tomasz_Osiński_3</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>382</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Ewa Agnieszka Pisula</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7458-5043</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Cross-Cultural Validation of the Polish Version of the ADI-R, Including New Algorithms for Toddlers and Young Preschoolers</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>The relationship between gestures and non-verbal communication and attentional processing in high-functioning adolescents with autism spectrum disorder</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Autism &amp; Developmental Language Impairments</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Ewa_Agnieszka_Pisula_26</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>450</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Magdalena Sylwia Roszczyńska-Kurasińska</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-3529-6724</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Embracing Circularity in Adaptive Reuse – the Grassroots Perspective</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Child Psychiatry &amp; Human Development</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Ewa_Agnieszka_Pisula_18</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Ewa Agnieszka Pisula</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-7458-5043</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Exploratory Analysis of the Links among Life History, Reproductive Strategy, Autism-Spectrum Quotient, and Quality of Life</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Proceedings of the STS Conference Graz 2019</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Magdalena_Sylwia_Roszczyńska-Kurasińska_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>451</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Magdalena Sylwia Roszczyńska-Kurasińska</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-3529-6724</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>The influence of values on the composition of well-being indexes from the perspective of cultural heritage and circular models</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Psychology</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Ewa_Agnieszka_Pisula_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Ewa Agnieszka Pisula</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-7458-5043</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Right Cerebral Hemisphere Language and Communication Functions in Females and Males with Autism Spectrum Disorders and Normal Intelligence</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Magdalena_Sylwia_Roszczyńska-Kurasińska_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>461</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Andrzej Rynkiewicz</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2763-0312</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Patterns of brain and cardiovascular activation while solving rule-discovery and rule-application numeric tasks</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>International Journal of Psychophysiology</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Andrzej_Rynkiewicz_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>487</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Marcin Tomasz Rzeszutek</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4230-3806</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Od  homo oeconomicus do homo realis :  o pożytkach płynących z większego otwarcia  się ekonomii na psychologię</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Psychology of Language and Communication</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Ewa_Agnieszka_Pisula_27</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Ewa Agnieszka Pisula</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-7458-5043</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>The relationship between gestures and non-verbal communication and attentional processing in high-functioning adolescents with autism spectrum disorder</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Studia i Prace Kolegium Zarządzania i Finansów</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Marcin_Tomasz_Rzeszutek_25</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>491</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Marcin Tomasz Rzeszutek</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4230-3806</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Coping profiles and subjective well-being among people living with HIV: intensive coping is related to worse well-being</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Quality of Life Research</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Marcin_Tomasz_Rzeszutek_29</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>495</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Marcin Tomasz Rzeszutek</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4230-3806</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Kłopoty przy pomocy</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ACADEMIA: MAGAZYN POLSKIEJ AKADEMII NAUK</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Marcin_Tomasz_Rzeszutek_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>496</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Marcin Tomasz Rzeszutek</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4230-3806</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Kłopoty przy pomocy</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ACADEMIA: MAGAZYN POLSKIEJ AKADEMII NAUK</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Marcin_Tomasz_Rzeszutek_34</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>497</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Marcin Tomasz Rzeszutek</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4230-3806</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Od homo oeconomicus do homo realis: o pożytkach płynących z większego otwarcia się ekonomii na psychologię</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Studia i Prace Kolegium Zarządzania i Finansów</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Marcin_Tomasz_Rzeszutek_35</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>507</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Katarzyna Sekścińska</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-6641-6506</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Co ma znaczenie przy ryzykownych wyborach finansowych - to, ile mamy, czy to, jak postrzegamy swoją sytuację finansową?</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Autism &amp; Developmental Language Impairments</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Ewa_Agnieszka_Pisula_29</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Magdalena Sylwia Roszczyńska-Kurasińska</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-3529-6724</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Embracing Circularity in Adaptive Reuse – the Grassroots Perspective</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Marketing i Rynek</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Katarzyna_Sekścińska_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>508</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Katarzyna Sekścińska</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-6641-6506</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Edukacja i socjalizacja ekonomiczna dzieci - rodzice jako źródło zachowań, wartości i emocji wobec finansów</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MARKETING I RYNEK</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Katarzyna_Sekścińska_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>509</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Katarzyna Sekścińska</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-6641-6506</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Edukacja i socjalizacja ekonomiczna dzieci – rodzice jako źródło wiedzy, wzorców zachowań, wartości i emocji wobec finansów</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Marketing i Rynek</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Katarzyna_Sekścińska_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>512</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Katarzyna Sekścińska</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-6641-6506</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Individual differences in time perspectives and risky financial choices.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Personality and Individual Differences</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Katarzyna_Sekścińska_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>544</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Rafał Piotr Styła</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-3792-8473</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Psychometric properties of the General Functioning Questionnaire (GFQ-58) used for screening for symptoms of psychopathology and overall level of functioning</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2020-02-29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Psychiatria Polska</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Rafał_Piotr_Styła_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>547</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Rafał Piotr Styła</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-3792-8473</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Who and how conducts psychotherapy in Poland. Part I. Research review,Kto i w jaki sposób prowadzi psychoterapie w Polsce. Czesc I. Przeglad dotychczasowych badan</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Psychiatria</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Rafał_Piotr_Styła_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>548</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Rafał Piotr Styła</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-3792-8473</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Who and how conducts psychotherapy in Poland. Part II. Results from a nationwide survey,Kto i w jaki sposób prowadzi psychoterapie w Polsce. Czesc II. Wyniki ogólnopolskiego badania</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Psychiatria</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Rafał_Piotr_Styła_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>551</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Hubert Suszek</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-6655-4124</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Returning to the present moment: Thinking about one’s childhood increases focus on the hedonistic present</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>The Journal of General Psychology</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Hubert_Suszek_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>561</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Hubert Suszek</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-6655-4124</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Who and how conducts psychotherapy in Poland. Part I. Research review,Kto i w jaki sposób prowadzi psychoterapie w Polsce. Czesc I. Przeglad dotychczasowych badan</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Psychiatria</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Hubert_Suszek_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>562</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Hubert Suszek</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-6655-4124</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Who and how conducts psychotherapy in Poland. Part II. Results from a nationwide survey,Kto i w jaki sposób prowadzi psychoterapie w Polsce. Czesc II. Wyniki ogólnopolskiego badania</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Psychiatria</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Hubert_Suszek_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>566</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Anna Dorota Szuster-Kowalewicz</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-5362-0076</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Cyberprzemoc – wyzwanie dla współczesnej edukacji.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Informator Oświatowy</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Anna_Dorota_Szuster-Kowalewicz_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>567</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Anna Dorota Szuster-Kowalewicz</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-5362-0076</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Ich słowami – obraz pomocy w sytuacjach cyberprzemocy rówieśniczej z perspektywy uczniów</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Anna_Dorota_Szuster-Kowalewicz_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>568</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Anna Dorota Szuster-Kowalewicz</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-5362-0076</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Jak skutecznie ograniczyć cyberprzemoc rówieśniczą? – o efektywności metod aktywizujących kompetencje społeczne ze szczególnym uwzględnieniem empatii.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Anna_Dorota_Szuster-Kowalewicz_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>569</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Anna Dorota Szuster-Kowalewicz</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-5362-0076</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Jak skutecznie ograniczyć cyberprzemoc rówieśniczą? – o efektywności metod aktywizujących kompetencje społeczne ze szczególnym uwzględnieniem empatii.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Anna_Dorota_Szuster-Kowalewicz_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>591</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Piotr Paweł Tomaszewski</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4083-067X</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Temporal Affixation in Polish Sign Language</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Sign Language Studies</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Piotr_Paweł_Tomaszewski_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>594</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Piotr Paweł Tomaszewski</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4083-067X</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Percepcja audyzmu w polskiej społeczności głuchych</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Proceedings of the STS Conference Graz 2019</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Magdalena_Sylwia_Roszczyńska-Kurasińska_8</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Magdalena Sylwia Roszczyńska-Kurasińska</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-3529-6724</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>The influence of values on the composition of well-being indexes from the perspective of cultural heritage and circular models</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>SOCIETAS/COMMUNITAS</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Piotr_Paweł_Tomaszewski_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>596</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Piotr Paweł Tomaszewski</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-4083-067X</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Kompetencje dzieci głuchych w posługiwaniu się językiem migowym – metody oceny i jej kliniczne znaczenie</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Magdalena_Sylwia_Roszczyńska-Kurasińska_9</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Andrzej Rynkiewicz</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2763-0312</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Patterns of brain and cardiovascular activation while solving rule-discovery and rule-application numeric tasks</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Edukacja</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Piotr_Paweł_Tomaszewski_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>602</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Agata Trzcińska</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-6640-5295</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Edukacja i socjalizacja ekonomiczna dzieci – rodzice jako źródło wiedzy, wzorców zachowań, wartości i emocji wobec finansów</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Marketing i Rynek</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Agata_Trzcińska_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>616</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mikołaj Henryk Winiewski</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-8000-3038</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Marzec w lutym? Studium stosunku Polaków do  Żydów i historii Holokaustu w kontekście debaty wokół  ustawy o IPN</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Nauka</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Mikołaj_Henryk_Winiewski_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>655</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Marcin Zygmunt Zajenkowski</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-8669-4231</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Narcyzm a satysfakcja z życia: pośrednicząca rola neurotyczności i ekstrawersji</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>International Journal of Psychophysiology</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Andrzej_Rynkiewicz_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Marcin Tomasz Rzeszutek</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-4230-3806</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Od  homo oeconomicus do homo realis :  o pożytkach płynących z większego otwarcia  się ekonomii na psychologię</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Studia i Prace Kolegium Zarządzania i Finansów</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Marcin_Tomasz_Rzeszutek_25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Marcin Tomasz Rzeszutek</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-4230-3806</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Coping profiles and subjective well-being among people living with HIV: intensive coping is related to worse well-being</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Quality of Life Research</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Marcin_Tomasz_Rzeszutek_29</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Marcin Tomasz Rzeszutek</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-4230-3806</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Kłopoty przy pomocy</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>ACADEMIA: MAGAZYN POLSKIEJ AKADEMII NAUK</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Marcin_Tomasz_Rzeszutek_33</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Marcin Tomasz Rzeszutek</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-4230-3806</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Kłopoty przy pomocy</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>ACADEMIA: MAGAZYN POLSKIEJ AKADEMII NAUK</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Marcin_Tomasz_Rzeszutek_34</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Marcin Tomasz Rzeszutek</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-4230-3806</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Od homo oeconomicus do homo realis: o pożytkach płynących z większego otwarcia się ekonomii na psychologię</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Studia i Prace Kolegium Zarządzania i Finansów</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Marcin_Tomasz_Rzeszutek_35</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Katarzyna Sekścińska</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-6641-6506</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Co ma znaczenie przy ryzykownych wyborach finansowych - to, ile mamy, czy to, jak postrzegamy swoją sytuację finansową?</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Marketing i Rynek</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Katarzyna_Sekścińska_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Katarzyna Sekścińska</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-6641-6506</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Edukacja i socjalizacja ekonomiczna dzieci - rodzice jako źródło zachowań, wartości i emocji wobec finansów</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>MARKETING I RYNEK</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Katarzyna_Sekścińska_6</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Katarzyna Sekścińska</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-6641-6506</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Edukacja i socjalizacja ekonomiczna dzieci – rodzice jako źródło wiedzy, wzorców zachowań, wartości i emocji wobec finansów</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Marketing i Rynek</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Katarzyna_Sekścińska_7</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Katarzyna Sekścińska</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-6641-6506</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Individual differences in time perspectives and risky financial choices.</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Personality and Individual Differences</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Katarzyna_Sekścińska_10</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Rafał Piotr Styła</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-3792-8473</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Psychometric properties of the General Functioning Questionnaire (GFQ-58) used for screening for symptoms of psychopathology and overall level of functioning</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2020-02-29</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Psychiatria Polska</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Rafał_Piotr_Styła_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Rafał Piotr Styła</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-3792-8473</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Who and how conducts psychotherapy in Poland. Part I. Research review,Kto i w jaki sposób prowadzi psychoterapie w Polsce. Czesc I. Przeglad dotychczasowych badan</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Psychiatria</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Rafał_Piotr_Styła_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Rafał Piotr Styła</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-3792-8473</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Who and how conducts psychotherapy in Poland. Part II. Results from a nationwide survey,Kto i w jaki sposób prowadzi psychoterapie w Polsce. Czesc II. Wyniki ogólnopolskiego badania</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Psychiatria</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Rafał_Piotr_Styła_6</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Hubert Suszek</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-6655-4124</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Returning to the present moment: Thinking about one’s childhood increases focus on the hedonistic present</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>The Journal of General Psychology</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Hubert_Suszek_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Hubert Suszek</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-6655-4124</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Who and how conducts psychotherapy in Poland. Part I. Research review,Kto i w jaki sposób prowadzi psychoterapie w Polsce. Czesc I. Przeglad dotychczasowych badan</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Psychiatria</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Hubert_Suszek_12</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Hubert Suszek</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-6655-4124</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Who and how conducts psychotherapy in Poland. Part II. Results from a nationwide survey,Kto i w jaki sposób prowadzi psychoterapie w Polsce. Czesc II. Wyniki ogólnopolskiego badania</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Psychiatria</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Hubert_Suszek_13</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Anna Dorota Szuster-Kowalewicz</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-5362-0076</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Cyberprzemoc – wyzwanie dla współczesnej edukacji.</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Informator Oświatowy</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Anna_Dorota_Szuster-Kowalewicz_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Anna Dorota Szuster-Kowalewicz</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-5362-0076</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Ich słowami – obraz pomocy w sytuacjach cyberprzemocy rówieśniczej z perspektywy uczniów</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Anna_Dorota_Szuster-Kowalewicz_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Anna Dorota Szuster-Kowalewicz</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-5362-0076</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Jak skutecznie ograniczyć cyberprzemoc rówieśniczą? – o efektywności metod aktywizujących kompetencje społeczne ze szczególnym uwzględnieniem empatii.</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Anna_Dorota_Szuster-Kowalewicz_6</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Anna Dorota Szuster-Kowalewicz</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-5362-0076</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Jak skutecznie ograniczyć cyberprzemoc rówieśniczą? – o efektywności metod aktywizujących kompetencje społeczne ze szczególnym uwzględnieniem empatii.</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Anna_Dorota_Szuster-Kowalewicz_7</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Piotr Paweł Tomaszewski</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-4083-067X</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Temporal Affixation in Polish Sign Language</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sign Language Studies</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Piotr_Paweł_Tomaszewski_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Piotr Paweł Tomaszewski</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-4083-067X</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Percepcja audyzmu w polskiej społeczności głuchych</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>SOCIETAS/COMMUNITAS</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Piotr_Paweł_Tomaszewski_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Piotr Paweł Tomaszewski</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-4083-067X</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Kompetencje dzieci głuchych w posługiwaniu się językiem migowym – metody oceny i jej kliniczne znaczenie</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Edukacja</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Piotr_Paweł_Tomaszewski_7</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Agata Trzcińska</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-6640-5295</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Edukacja i socjalizacja ekonomiczna dzieci – rodzice jako źródło wiedzy, wzorców zachowań, wartości i emocji wobec finansów</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Marketing i Rynek</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Agata_Trzcińska_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Mikołaj Henryk Winiewski</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-8000-3038</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Marzec w lutym? Studium stosunku Polaków do  Żydów i historii Holokaustu w kontekście debaty wokół  ustawy o IPN</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Nauka</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Mikołaj_Henryk_Winiewski_7</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Marcin Zygmunt Zajenkowski</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-8669-4231</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Narcyzm a satysfakcja z życia: pośrednicząca rola neurotyczności i ekstrawersji</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>PSYCHOLOGIA-ETOLOGIA-GENETYKA</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Marcin_Zygmunt_Zajenkowski_27</t>
         </is>

--- a/data/publications/orcid/export_to_manual/Uniwersytet_Warszawski_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Warszawski_titles.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Kamilla_Bargiel-Matusiewicz_9</t>
+          <t>Kamilla_Bargiel-Matusiewicz_10</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Ewa_Agnieszka_Pisula_26</t>
+          <t>Ewa_Agnieszka_Pisula_23</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Piotr_Paweł_Tomaszewski_2</t>
+          <t>Piotr_Paweł_Tomaszewski_21</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Piotr_Paweł_Tomaszewski_5</t>
+          <t>Piotr_Paweł_Tomaszewski_3</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Piotr_Paweł_Tomaszewski_7</t>
+          <t>Piotr_Paweł_Tomaszewski_5</t>
         </is>
       </c>
     </row>
